--- a/config_aomi_5.11/game_module_config.xlsx
+++ b/config_aomi_5.11/game_module_config.xlsx
@@ -5074,7 +5074,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C342" sqref="C342:C343"/>
+      <selection pane="bottomRight" activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="15">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="B340" s="37" t="s">
         <v>1047</v>

--- a/config_aomi_5.11/game_module_config.xlsx
+++ b/config_aomi_5.11/game_module_config.xlsx
@@ -3962,7 +3962,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3976,31 +4013,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4011,22 +4026,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4046,6 +4045,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4053,8 +4060,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4062,14 +4070,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4088,9 +4089,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4154,31 +4154,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,13 +4202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4208,13 +4220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,19 +4244,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4262,7 +4274,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4274,55 +4322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4351,6 +4351,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4362,6 +4371,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4390,35 +4414,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4440,11 +4442,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4456,10 +4456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4468,16 +4468,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4486,73 +4486,73 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4561,40 +4561,40 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5078,11 +5078,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
+      <selection pane="bottomRight" activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13705,13 +13705,13 @@
         <v>996</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I339" s="28" t="s">
         <v>993</v>

--- a/config_aomi_5.11/game_module_config.xlsx
+++ b/config_aomi_5.11/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_5.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -501,7 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +517,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -530,7 +535,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -548,7 +553,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -566,7 +571,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1257,7 +1262,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1352,7 +1357,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1387,7 +1392,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1440,7 +1445,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1501,7 +1506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1536,7 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1639,7 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1674,7 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1709,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1744,7 +1749,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1779,7 +1784,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1814,7 +1819,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1849,7 +1854,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1978,7 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2004,7 +2009,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3467,7 +3472,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3861,18 +3866,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>购买后180天领取奖励</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3884,7 +3887,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3896,13 +3899,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3920,13 +3923,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3945,142 +3948,19 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4090,26 +3970,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,13 +3996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,182 +4024,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4350,255 +4048,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4628,16 +4084,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4755,63 +4211,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5069,20 +4481,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E343" sqref="E343"/>
+      <selection pane="bottomRight" activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5098,7 +4509,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5127,7 +4538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6451,7 +5862,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6633,7 +6044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6997,7 +6408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7049,7 +6460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8167,7 +7578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9737,7 +9148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9761,7 +9172,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9785,7 +9196,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10807,7 +10218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10830,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10853,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10876,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10899,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10922,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10945,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10968,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10991,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11561,7 +10972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11587,7 +10998,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11613,7 +11024,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11639,7 +11050,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11665,7 +11076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11743,7 +11154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11769,7 +11180,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11795,7 +11206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11821,7 +11232,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11847,7 +11258,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11873,7 +11284,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12061,7 +11472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12087,7 +11498,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -12110,7 +11521,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12264,7 +11675,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12290,7 +11701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12342,7 +11753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12368,7 +11779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12394,7 +11805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -12420,7 +11831,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12446,7 +11857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12472,7 +11883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12498,7 +11909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12524,7 +11935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12550,7 +11961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12576,7 +11987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12680,7 +12091,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12706,7 +12117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12732,7 +12143,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12758,7 +12169,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12784,7 +12195,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12810,7 +12221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12836,7 +12247,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12862,7 +12273,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12888,7 +12299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12914,7 +12325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12940,7 +12351,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12966,7 +12377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12992,7 +12403,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13018,7 +12429,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13041,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13067,7 +12478,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13093,7 +12504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13119,7 +12530,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13145,7 +12556,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13168,7 +12579,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13191,7 +12602,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13214,7 +12625,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13237,7 +12648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13260,7 +12671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13286,7 +12697,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13310,7 +12721,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13336,7 +12747,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13359,7 +12770,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13388,7 +12799,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13414,7 +12825,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13440,7 +12851,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13466,7 +12877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13619,7 +13030,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9">
       <c r="A336" s="13">
         <v>335</v>
       </c>
@@ -13714,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="I339" s="28" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -13744,39 +13155,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_aomi_5.11/game_module_config.xlsx
+++ b/config_aomi_5.11/game_module_config.xlsx
@@ -3603,7 +3603,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_014_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3867,10 +3867,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3912,13 +3912,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3943,6 +3936,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -3954,103 +3954,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4072,6 +3977,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4081,8 +4060,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4103,13 +4090,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4154,25 +4154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,7 +4178,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4202,19 +4274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4226,37 +4292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4268,67 +4316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4368,6 +4356,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4419,9 +4416,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4440,26 +4448,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4468,10 +4456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4480,139 +4468,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4670,13 +4658,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4688,31 +4676,31 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4721,41 +4709,35 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4769,7 +4751,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5100,7 +5082,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
+      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11861,7 +11843,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="45" t="s">
+      <c r="I266" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11887,7 +11869,7 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="45" t="s">
+      <c r="I267" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11913,7 +11895,7 @@
       <c r="G268" s="5">
         <v>1</v>
       </c>
-      <c r="I268" s="45" t="s">
+      <c r="I268" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11940,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="H269" s="5"/>
-      <c r="I269" s="45" t="s">
+      <c r="I269" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11967,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5"/>
-      <c r="I270" s="45" t="s">
+      <c r="I270" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11994,7 +11976,7 @@
         <v>1</v>
       </c>
       <c r="H271" s="5"/>
-      <c r="I271" s="45" t="s">
+      <c r="I271" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12021,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="H272" s="5"/>
-      <c r="I272" s="45" t="s">
+      <c r="I272" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12075,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="45" t="s">
+      <c r="I274" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12177,7 +12159,7 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="45" t="s">
+      <c r="I278" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12200,7 +12182,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="45" t="s">
+      <c r="I279" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12226,7 +12208,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="45" t="s">
+      <c r="I280" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12252,7 +12234,7 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="45" t="s">
+      <c r="I281" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12278,7 +12260,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="45" t="s">
+      <c r="I282" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12304,7 +12286,7 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="46" t="s">
+      <c r="I283" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12330,7 +12312,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="46" t="s">
+      <c r="I284" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12356,7 +12338,7 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="I285" s="45" t="s">
+      <c r="I285" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12382,7 +12364,7 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="46" t="s">
+      <c r="I286" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12408,7 +12390,7 @@
       <c r="G287" s="7">
         <v>1</v>
       </c>
-      <c r="I287" s="46" t="s">
+      <c r="I287" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12460,7 +12442,7 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="46" t="s">
+      <c r="I289" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12486,7 +12468,7 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="46" t="s">
+      <c r="I290" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12512,7 +12494,7 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="46" t="s">
+      <c r="I291" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12538,7 +12520,7 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="46" t="s">
+      <c r="I292" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12564,7 +12546,7 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="46" t="s">
+      <c r="I293" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12590,7 +12572,7 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="46" t="s">
+      <c r="I294" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12616,7 +12598,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="46" t="s">
+      <c r="I295" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12720,7 +12702,7 @@
       <c r="G299" s="5">
         <v>1</v>
       </c>
-      <c r="I299" s="45" t="s">
+      <c r="I299" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12746,7 +12728,7 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-      <c r="I300" s="45" t="s">
+      <c r="I300" s="32" t="s">
         <v>877</v>
       </c>
     </row>
@@ -12772,7 +12754,7 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-      <c r="I301" s="45" t="s">
+      <c r="I301" s="32" t="s">
         <v>877</v>
       </c>
     </row>
@@ -12798,7 +12780,7 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-      <c r="I302" s="45" t="s">
+      <c r="I302" s="32" t="s">
         <v>877</v>
       </c>
     </row>
@@ -12824,7 +12806,7 @@
       <c r="G303" s="5">
         <v>1</v>
       </c>
-      <c r="I303" s="45" t="s">
+      <c r="I303" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12902,7 +12884,7 @@
       <c r="G306" s="5">
         <v>1</v>
       </c>
-      <c r="I306" s="45" t="s">
+      <c r="I306" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12928,7 +12910,7 @@
       <c r="G307" s="5">
         <v>1</v>
       </c>
-      <c r="I307" s="45" t="s">
+      <c r="I307" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13107,7 +13089,7 @@
       <c r="G314" s="5">
         <v>1</v>
       </c>
-      <c r="I314" s="45" t="s">
+      <c r="I314" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13170,7 +13152,7 @@
       <c r="B317" s="43" t="s">
         <v>930</v>
       </c>
-      <c r="C317" s="36" t="s">
+      <c r="C317" s="44" t="s">
         <v>931</v>
       </c>
       <c r="E317" s="6">
@@ -13193,7 +13175,7 @@
       <c r="B318" s="43" t="s">
         <v>933</v>
       </c>
-      <c r="C318" s="36" t="s">
+      <c r="C318" s="44" t="s">
         <v>934</v>
       </c>
       <c r="E318" s="6">
@@ -13216,7 +13198,7 @@
       <c r="B319" s="43" t="s">
         <v>935</v>
       </c>
-      <c r="C319" s="36" t="s">
+      <c r="C319" s="44" t="s">
         <v>936</v>
       </c>
       <c r="E319" s="6">
@@ -13236,7 +13218,7 @@
       <c r="A320" s="13">
         <v>319</v>
       </c>
-      <c r="B320" s="44" t="s">
+      <c r="B320" s="45" t="s">
         <v>937</v>
       </c>
       <c r="C320" s="36" t="s">
@@ -13251,7 +13233,7 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="47" t="s">
+      <c r="I320" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13259,10 +13241,10 @@
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="48" t="s">
+      <c r="B321" s="46" t="s">
         <v>939</v>
       </c>
-      <c r="C321" s="36" t="s">
+      <c r="C321" s="44" t="s">
         <v>940</v>
       </c>
       <c r="E321" s="6">
@@ -13274,7 +13256,7 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="47" t="s">
+      <c r="I321" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13308,7 +13290,7 @@
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="49" t="s">
+      <c r="B323" s="47" t="s">
         <v>945</v>
       </c>
       <c r="C323" s="32" t="s">
@@ -13413,7 +13395,7 @@
       <c r="B327" s="33" t="s">
         <v>956</v>
       </c>
-      <c r="C327" s="45" t="s">
+      <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
@@ -13439,7 +13421,7 @@
       <c r="B328" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="C328" s="45" t="s">
+      <c r="C328" s="32" t="s">
         <v>960</v>
       </c>
       <c r="D328" s="33" t="s">
@@ -13491,7 +13473,7 @@
       <c r="B330" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="C330" s="45" t="s">
+      <c r="C330" s="32" t="s">
         <v>967</v>
       </c>
       <c r="D330" s="5" t="s">
@@ -13517,7 +13499,7 @@
       <c r="B331" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C331" s="45" t="s">
+      <c r="C331" s="32" t="s">
         <v>970</v>
       </c>
       <c r="D331" t="s">
@@ -13543,7 +13525,7 @@
       <c r="B332" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C332" s="45" t="s">
+      <c r="C332" s="32" t="s">
         <v>973</v>
       </c>
       <c r="D332" t="s">
@@ -13569,7 +13551,7 @@
       <c r="B333" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="C333" s="45" t="s">
+      <c r="C333" s="32" t="s">
         <v>976</v>
       </c>
       <c r="D333" s="28" t="s">
@@ -13595,7 +13577,7 @@
       <c r="B334" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C334" s="45" t="s">
+      <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
@@ -13710,13 +13692,13 @@
       <c r="A339" s="13">
         <v>338</v>
       </c>
-      <c r="B339" s="50" t="s">
+      <c r="B339" s="48" t="s">
         <v>994</v>
       </c>
       <c r="C339" t="s">
         <v>995</v>
       </c>
-      <c r="D339" s="51" t="s">
+      <c r="D339" s="49" t="s">
         <v>996</v>
       </c>
       <c r="E339">
@@ -13754,7 +13736,7 @@
       <c r="G340">
         <v>1</v>
       </c>
-      <c r="I340" s="52" t="s">
+      <c r="I340" s="50" t="s">
         <v>1000</v>
       </c>
     </row>

--- a/config_aomi_5.11/game_module_config.xlsx
+++ b/config_aomi_5.11/game_module_config.xlsx
@@ -3867,9 +3867,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3954,37 +3954,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3993,21 +3962,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4021,10 +3983,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4043,6 +4006,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4052,18 +4023,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4075,16 +4068,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4101,6 +4086,21 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4160,13 +4160,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4184,12 +4196,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4202,19 +4208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,19 +4238,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4262,13 +4268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4280,7 +4286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4292,37 +4316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4351,24 +4351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4380,6 +4362,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4416,11 +4407,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4428,8 +4417,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4448,6 +4437,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4456,10 +4456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4468,137 +4468,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5078,11 +5078,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
+      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12980,13 +12980,13 @@
         <v>909</v>
       </c>
       <c r="E310" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" s="32" t="s">
         <v>890</v>
@@ -13558,13 +13558,13 @@
         <v>977</v>
       </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="32" t="s">
         <v>978</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" s="13">
         <v>336</v>
       </c>
@@ -13663,6 +13663,9 @@
       </c>
       <c r="G337" s="5">
         <v>1</v>
+      </c>
+      <c r="I337">
+        <v>5.18</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13676,13 +13679,13 @@
         <v>992</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="s">
         <v>993</v>
@@ -13702,13 +13705,13 @@
         <v>996</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" s="28" t="s">
         <v>993</v>
